--- a/hsi_close.xlsx
+++ b/hsi_close.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5770"/>
+  <dimension ref="A1:B5792"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46603,6 +46603,182 @@
         <v>18595.779296875</v>
       </c>
     </row>
+    <row r="5771">
+      <c r="A5771" s="2" t="n">
+        <v>45077</v>
+      </c>
+      <c r="B5771" t="n">
+        <v>18234.26953125</v>
+      </c>
+    </row>
+    <row r="5772">
+      <c r="A5772" s="2" t="n">
+        <v>45078</v>
+      </c>
+      <c r="B5772" t="n">
+        <v>18216.91015625</v>
+      </c>
+    </row>
+    <row r="5773">
+      <c r="A5773" s="2" t="n">
+        <v>45079</v>
+      </c>
+      <c r="B5773" t="n">
+        <v>18949.939453125</v>
+      </c>
+    </row>
+    <row r="5774">
+      <c r="A5774" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="B5774" t="n">
+        <v>19108.5</v>
+      </c>
+    </row>
+    <row r="5775">
+      <c r="A5775" s="2" t="n">
+        <v>45083</v>
+      </c>
+      <c r="B5775" t="n">
+        <v>19099.279296875</v>
+      </c>
+    </row>
+    <row r="5776">
+      <c r="A5776" s="2" t="n">
+        <v>45084</v>
+      </c>
+      <c r="B5776" t="n">
+        <v>19252</v>
+      </c>
+    </row>
+    <row r="5777">
+      <c r="A5777" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="B5777" t="n">
+        <v>19299.1796875</v>
+      </c>
+    </row>
+    <row r="5778">
+      <c r="A5778" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="B5778" t="n">
+        <v>19389.94921875</v>
+      </c>
+    </row>
+    <row r="5779">
+      <c r="A5779" s="2" t="n">
+        <v>45089</v>
+      </c>
+      <c r="B5779" t="n">
+        <v>19404.310546875</v>
+      </c>
+    </row>
+    <row r="5780">
+      <c r="A5780" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="B5780" t="n">
+        <v>19521.419921875</v>
+      </c>
+    </row>
+    <row r="5781">
+      <c r="A5781" s="2" t="n">
+        <v>45091</v>
+      </c>
+      <c r="B5781" t="n">
+        <v>19408.419921875</v>
+      </c>
+    </row>
+    <row r="5782">
+      <c r="A5782" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="B5782" t="n">
+        <v>19828.919921875</v>
+      </c>
+    </row>
+    <row r="5783">
+      <c r="A5783" s="2" t="n">
+        <v>45093</v>
+      </c>
+      <c r="B5783" t="n">
+        <v>20040.369140625</v>
+      </c>
+    </row>
+    <row r="5784">
+      <c r="A5784" s="2" t="n">
+        <v>45096</v>
+      </c>
+      <c r="B5784" t="n">
+        <v>19912.890625</v>
+      </c>
+    </row>
+    <row r="5785">
+      <c r="A5785" s="2" t="n">
+        <v>45097</v>
+      </c>
+      <c r="B5785" t="n">
+        <v>19607.080078125</v>
+      </c>
+    </row>
+    <row r="5786">
+      <c r="A5786" s="2" t="n">
+        <v>45098</v>
+      </c>
+      <c r="B5786" t="n">
+        <v>19218.349609375</v>
+      </c>
+    </row>
+    <row r="5787">
+      <c r="A5787" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="B5787" t="n">
+        <v>18889.970703125</v>
+      </c>
+    </row>
+    <row r="5788">
+      <c r="A5788" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="B5788" t="n">
+        <v>18794.130859375</v>
+      </c>
+    </row>
+    <row r="5789">
+      <c r="A5789" s="2" t="n">
+        <v>45104</v>
+      </c>
+      <c r="B5789" t="n">
+        <v>19148.130859375</v>
+      </c>
+    </row>
+    <row r="5790">
+      <c r="A5790" s="2" t="n">
+        <v>45105</v>
+      </c>
+      <c r="B5790" t="n">
+        <v>19172.05078125</v>
+      </c>
+    </row>
+    <row r="5791">
+      <c r="A5791" s="2" t="n">
+        <v>45106</v>
+      </c>
+      <c r="B5791" t="n">
+        <v>18934.359375</v>
+      </c>
+    </row>
+    <row r="5792">
+      <c r="A5792" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="B5792" t="n">
+        <v>18916.4296875</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
